--- a/medicine/Pharmacie/David_Edwards/David_Edwards.xlsx
+++ b/medicine/Pharmacie/David_Edwards/David_Edwards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Andrew Edwards, né le 6 avril 1961[1], est un ingénieur chimiste, professeur de génie biomédical à l'université Harvard aux États-Unis, écrivain, et fondateur du Laboratoire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Andrew Edwards, né le 6 avril 1961, est un ingénieur chimiste, professeur de génie biomédical à l'université Harvard aux États-Unis, écrivain, et fondateur du Laboratoire.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son travail scientifique concerne la recherche et le développement de nouveaux protocoles de médicaments pour traiter les maladies infectieuses dans les pays en voie de développement. Il a publié plus de 70 papiers scientifiques et deux ouvrages dans les domaines des mathématiques appliquées.
 Il est le fondateur d’AIR (Advanced Inhalation Research, aujourd’hui Alkermes, Inc.) et de Pulmatrix. Il est aussi le cofondateur de plusieurs organisations à but lucratif ou non lucratif en France, en Afrique du Sud et aux États-Unis, notamment l'organisation caritative non gouvernementale Medicine in Need (MEND) dont le but est de développer de nouveaux traitements et vaccins contre les maladies liées à la pauvreté, notamment la tuberculose. Il a reçu maintes reconnaissances internationales et prix pour son travail scientifique[réf. nécessaire].
